--- a/2-2数据计算/Q890角焊缝承载能力与变形能力汇总.xlsx
+++ b/2-2数据计算/Q890角焊缝承载能力与变形能力汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\2-2数据计算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\1毕业课题\#Graduate-thesis\2-2数据计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -641,7 +641,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
